--- a/Planning-BauX/3.PM-Sheet.xlsx
+++ b/Planning-BauX/3.PM-Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AminT\Desktop\Planning-BauX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\project-proposal-baux\Planning-BauX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824420A-9181-4F56-8970-4B4D47A791A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A13B37-C3D5-4B99-A243-459133DEF7BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt 1" sheetId="1" r:id="rId1"/>
@@ -847,21 +847,21 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="40.75" customWidth="1"/>
-    <col min="4" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
@@ -869,8 +869,8 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -890,8 +890,8 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>0.75</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>0.5</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>0.25</v>
       </c>
@@ -962,9 +962,9 @@
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -976,19 +976,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <f>E12-F12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1000,19 +1000,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13:G15" si="0">E13-F13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1024,19 +1024,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1048,17 +1048,17 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>0</v>
       </c>

--- a/Planning-BauX/3.PM-Sheet.xlsx
+++ b/Planning-BauX/3.PM-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\project-proposal-baux\Planning-BauX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A13B37-C3D5-4B99-A243-459133DEF7BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AC3E6A-ECB0-4712-9639-9875A43AF032}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt 1" sheetId="1" r:id="rId1"/>
@@ -93,13 +93,13 @@
     <t>Create the group table</t>
   </si>
   <si>
-    <t>Create the group member table</t>
-  </si>
-  <si>
-    <t>Create the work-per-day tables</t>
-  </si>
-  <si>
     <t>Djukic, Hamzic, Taha</t>
+  </si>
+  <si>
+    <t>Create the secretary table</t>
+  </si>
+  <si>
+    <t>Create the work-per-day table</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
